--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
@@ -388,10 +388,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7150789356003348</v>
+        <v>0.7150789356003346</v>
       </c>
       <c r="C2">
-        <v>0.6215666997669426</v>
+        <v>0.6215666997669428</v>
       </c>
       <c r="D2">
         <v>0.6289819592118958</v>
@@ -411,7 +411,7 @@
         <v>0.6036604384906538</v>
       </c>
       <c r="D3">
-        <v>0.6135223343091023</v>
+        <v>0.6135223343091022</v>
       </c>
       <c r="E3">
         <v>0.6811601416780569</v>
@@ -425,13 +425,13 @@
         <v>0.6336351776787764</v>
       </c>
       <c r="C4">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="D4">
-        <v>0.5520776392066072</v>
+        <v>0.5520776392066071</v>
       </c>
       <c r="E4">
-        <v>0.6113085041320792</v>
+        <v>0.6113085041320793</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,7 +442,7 @@
         <v>0.6336351776787764</v>
       </c>
       <c r="C5">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="D5">
         <v>0.5520776392066071</v>
@@ -459,10 +459,10 @@
         <v>0.6336351776787764</v>
       </c>
       <c r="C6">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="D6">
-        <v>0.5520776392066072</v>
+        <v>0.5520776392066071</v>
       </c>
       <c r="E6">
         <v>0.6113085041320793</v>
@@ -496,7 +496,7 @@
         <v>0.6391013669241564</v>
       </c>
       <c r="D8">
-        <v>0.6548964367054766</v>
+        <v>0.6548964367054764</v>
       </c>
       <c r="E8">
         <v>0.7146952457503676</v>
@@ -533,7 +533,7 @@
         <v>0.6548964367054764</v>
       </c>
       <c r="E10">
-        <v>0.7146952457503676</v>
+        <v>0.7146952457503675</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -584,7 +584,7 @@
         <v>0.6135223343091023</v>
       </c>
       <c r="E13">
-        <v>0.6811601416780571</v>
+        <v>0.6811601416780569</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6328809129374655</v>
+        <v>0.6328809129374656</v>
       </c>
       <c r="C14">
         <v>0.5501123774539026</v>
@@ -615,7 +615,7 @@
         <v>0.6391013669241563</v>
       </c>
       <c r="D15">
-        <v>0.6548964367054765</v>
+        <v>0.6548964367054764</v>
       </c>
       <c r="E15">
         <v>0.7146952457503676</v>
@@ -626,10 +626,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7505141991000419</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C16">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="D16">
         <v>0.672867920282928</v>
@@ -646,7 +646,7 @@
         <v>0.6328809129374655</v>
       </c>
       <c r="C17">
-        <v>0.5501123774539026</v>
+        <v>0.5501123774539028</v>
       </c>
       <c r="D17">
         <v>0.5586593267777579</v>
@@ -666,10 +666,10 @@
         <v>0.6036604384906537</v>
       </c>
       <c r="D18">
-        <v>0.6135223343091024</v>
+        <v>0.6135223343091023</v>
       </c>
       <c r="E18">
-        <v>0.6811601416780571</v>
+        <v>0.6811601416780569</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -677,10 +677,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.750514199100042</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C19">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="D19">
         <v>0.672867920282928</v>
@@ -694,13 +694,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.750514199100042</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C20">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="D20">
-        <v>0.6728679202829279</v>
+        <v>0.672867920282928</v>
       </c>
       <c r="E20">
         <v>0.7283409110750761</v>
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.7505141991000419</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C21">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="D21">
         <v>0.672867920282928</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7150789356003348</v>
+        <v>0.7150789356003346</v>
       </c>
       <c r="C23">
         <v>0.6215666997669427</v>
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.5524379965583723</v>
+        <v>0.5524379965583724</v>
       </c>
       <c r="C24">
         <v>0.4663964200091676</v>
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.5524379965583724</v>
+        <v>0.5524379965583726</v>
       </c>
       <c r="C25">
         <v>0.4663964200091676</v>
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.5524379965583724</v>
+        <v>0.5524379965583726</v>
       </c>
       <c r="C26">
         <v>0.4663964200091676</v>
@@ -867,7 +867,7 @@
         <v>0.7871029011253694</v>
       </c>
       <c r="C30">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="D30">
         <v>0.8098915899003403</v>
@@ -884,7 +884,7 @@
         <v>0.7871029011253694</v>
       </c>
       <c r="C31">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="D31">
         <v>0.8098915899003402</v>
@@ -898,10 +898,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.7855894980242882</v>
+        <v>0.7855894980242883</v>
       </c>
       <c r="C32">
-        <v>0.783598954669842</v>
+        <v>0.7835989546698421</v>
       </c>
       <c r="D32">
         <v>0.7898468849758553</v>
@@ -915,10 +915,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.7871029011253692</v>
+        <v>0.7871029011253694</v>
       </c>
       <c r="C33">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="D33">
         <v>0.8098915899003402</v>
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.876117890736723</v>
+        <v>0.8761178907367227</v>
       </c>
       <c r="C34">
-        <v>0.8659439152763267</v>
+        <v>0.8659439152763269</v>
       </c>
       <c r="D34">
         <v>0.8830649313752714</v>
@@ -949,10 +949,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.9135821952456218</v>
+        <v>0.9135821952456219</v>
       </c>
       <c r="C35">
-        <v>0.9179925972856321</v>
+        <v>0.9179925972856323</v>
       </c>
       <c r="D35">
         <v>0.9312409175126451</v>
@@ -969,7 +969,7 @@
         <v>0.7010544255394701</v>
       </c>
       <c r="C36">
-        <v>0.6936306451711344</v>
+        <v>0.6936306451711345</v>
       </c>
       <c r="D36">
         <v>0.6930416176585006</v>
@@ -983,16 +983,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8338752236800738</v>
+        <v>0.8338752236800739</v>
       </c>
       <c r="C37">
-        <v>0.8488058302250459</v>
+        <v>0.8488058302250461</v>
       </c>
       <c r="D37">
-        <v>0.8592962337282717</v>
+        <v>0.859296233728272</v>
       </c>
       <c r="E37">
-        <v>0.7586574634698566</v>
+        <v>0.7586574634698565</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8338752236800738</v>
+        <v>0.8338752236800739</v>
       </c>
       <c r="C38">
-        <v>0.8488058302250459</v>
+        <v>0.848805830225046</v>
       </c>
       <c r="D38">
-        <v>0.8592962337282717</v>
+        <v>0.8592962337282719</v>
       </c>
       <c r="E38">
         <v>0.7586574634698565</v>
@@ -1017,13 +1017,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.910858182394006</v>
+        <v>0.9108581823940058</v>
       </c>
       <c r="C39">
-        <v>0.9213965758687735</v>
+        <v>0.9213965758687738</v>
       </c>
       <c r="D39">
-        <v>0.9440677691440794</v>
+        <v>0.9440677691440796</v>
       </c>
       <c r="E39">
         <v>0.8512734874582237</v>
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.914465608441549</v>
+        <v>0.9144656084415491</v>
       </c>
       <c r="C40">
         <v>0.9059261826846016</v>
@@ -1051,10 +1051,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.9135821952456218</v>
+        <v>0.9135821952456219</v>
       </c>
       <c r="C41">
-        <v>0.9179925972856323</v>
+        <v>0.9179925972856324</v>
       </c>
       <c r="D41">
         <v>0.9312409175126451</v>
@@ -1071,10 +1071,10 @@
         <v>0.783111185626299</v>
       </c>
       <c r="C42">
-        <v>0.7768853136218402</v>
+        <v>0.7768853136218403</v>
       </c>
       <c r="D42">
-        <v>0.7766268733525319</v>
+        <v>0.776626873352532</v>
       </c>
       <c r="E42">
         <v>0.6818309853166951</v>
@@ -1091,7 +1091,7 @@
         <v>0.7349311489106821</v>
       </c>
       <c r="D43">
-        <v>0.7270331790275969</v>
+        <v>0.727033179027597</v>
       </c>
       <c r="E43">
         <v>0.6467643104936825</v>
@@ -1105,10 +1105,10 @@
         <v>0.6211584180277319</v>
       </c>
       <c r="C44">
-        <v>0.5952754721331055</v>
+        <v>0.5952754721331057</v>
       </c>
       <c r="D44">
-        <v>0.5902350852542443</v>
+        <v>0.5902350852542442</v>
       </c>
       <c r="E44">
         <v>0.5259106895685478</v>
@@ -1122,13 +1122,13 @@
         <v>0.7203791701957224</v>
       </c>
       <c r="C45">
-        <v>0.7111370109745159</v>
+        <v>0.711137010974516</v>
       </c>
       <c r="D45">
-        <v>0.7076351756413217</v>
+        <v>0.7076351756413218</v>
       </c>
       <c r="E45">
-        <v>0.6186631521067224</v>
+        <v>0.6186631521067223</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8324844901991443</v>
+        <v>0.8324844901991444</v>
       </c>
       <c r="C46">
-        <v>0.831609590680916</v>
+        <v>0.8316095906809161</v>
       </c>
       <c r="D46">
-        <v>0.8382514190861651</v>
+        <v>0.8382514190861653</v>
       </c>
       <c r="E46">
-        <v>0.7424195475299902</v>
+        <v>0.7424195475299901</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,13 +1173,13 @@
         <v>0.6881348883404153</v>
       </c>
       <c r="C48">
-        <v>0.6717913251722961</v>
+        <v>0.6717913251722962</v>
       </c>
       <c r="D48">
         <v>0.6615552722972365</v>
       </c>
       <c r="E48">
-        <v>0.5861543442496582</v>
+        <v>0.5861543442496581</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1196,7 +1196,7 @@
         <v>0.6731197694463079</v>
       </c>
       <c r="E49">
-        <v>0.7814688683658427</v>
+        <v>0.7814688683658426</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1204,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.7097191774688542</v>
+        <v>0.709719177468854</v>
       </c>
       <c r="C50">
         <v>0.6302240947826101</v>
@@ -1224,7 +1224,7 @@
         <v>0.5465470986898104</v>
       </c>
       <c r="C51">
-        <v>0.4828211195929774</v>
+        <v>0.4828211195929775</v>
       </c>
       <c r="D51">
         <v>0.5133425412949519</v>
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.6274933104751181</v>
+        <v>0.627493310475118</v>
       </c>
       <c r="C53">
-        <v>0.5598422287504702</v>
+        <v>0.5598422287504703</v>
       </c>
       <c r="D53">
-        <v>0.5974235565037744</v>
+        <v>0.5974235565037743</v>
       </c>
       <c r="E53">
         <v>0.698722597606759</v>
@@ -1278,7 +1278,7 @@
         <v>0.5179899132709761</v>
       </c>
       <c r="D54">
-        <v>0.5529593713858856</v>
+        <v>0.5529593713858855</v>
       </c>
       <c r="E54">
         <v>0.6499415834208822</v>
@@ -1289,7 +1289,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.7097191774688543</v>
+        <v>0.709719177468854</v>
       </c>
       <c r="C55">
         <v>0.6302240947826101</v>
@@ -1306,10 +1306,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.7666417683945164</v>
+        <v>0.7666417683945163</v>
       </c>
       <c r="C56">
-        <v>0.683866339726624</v>
+        <v>0.6838663397266241</v>
       </c>
       <c r="D56">
         <v>0.7293723089815475</v>
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.5871703117701897</v>
+        <v>0.5871703117701899</v>
       </c>
       <c r="C57">
         <v>0.5090262661487441</v>
@@ -1366,7 +1366,7 @@
         <v>0.7921610280700778</v>
       </c>
       <c r="E59">
-        <v>0.9129195881485488</v>
+        <v>0.9129195881485485</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.3667792147974713</v>
+        <v>0.3667792147974712</v>
       </c>
       <c r="C62">
         <v>0.3082447278590976</v>
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.3667792147974713</v>
+        <v>0.3667792147974712</v>
       </c>
       <c r="C63">
         <v>0.3082447278590976</v>
@@ -1445,7 +1445,7 @@
         <v>0.253585580858562</v>
       </c>
       <c r="C64">
-        <v>0.212851422881214</v>
+        <v>0.2128514228812141</v>
       </c>
       <c r="D64">
         <v>0.2091818221321249</v>
@@ -1462,7 +1462,7 @@
         <v>0.253585580858562</v>
       </c>
       <c r="C65">
-        <v>0.212851422881214</v>
+        <v>0.2128514228812141</v>
       </c>
       <c r="D65">
         <v>0.2091818221321249</v>
@@ -1479,10 +1479,10 @@
         <v>0.9653106575672832</v>
       </c>
       <c r="C66">
-        <v>0.8931746697813274</v>
+        <v>0.8931746697813272</v>
       </c>
       <c r="D66">
-        <v>0.8620724496045515</v>
+        <v>0.862072449604551</v>
       </c>
       <c r="E66">
         <v>0.8064867513734632</v>
@@ -1496,10 +1496,10 @@
         <v>0.9245829465161612</v>
       </c>
       <c r="C67">
-        <v>0.8477388321520788</v>
+        <v>0.8477388321520787</v>
       </c>
       <c r="D67">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="E67">
         <v>0.7707099443511992</v>
@@ -1513,10 +1513,10 @@
         <v>0.9653106575672832</v>
       </c>
       <c r="C68">
-        <v>0.8931746697813274</v>
+        <v>0.8931746697813272</v>
       </c>
       <c r="D68">
-        <v>0.8620724496045515</v>
+        <v>0.8620724496045511</v>
       </c>
       <c r="E68">
         <v>0.8064867513734632</v>
@@ -1533,7 +1533,7 @@
         <v>0.8477388321520788</v>
       </c>
       <c r="D69">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="E69">
         <v>0.7707099443511993</v>
@@ -1550,7 +1550,7 @@
         <v>0.8477388321520788</v>
       </c>
       <c r="D70">
-        <v>0.8109876430971567</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="E70">
         <v>0.7707099443511993</v>
@@ -1567,10 +1567,10 @@
         <v>0.8591872494929877</v>
       </c>
       <c r="D71">
-        <v>0.8267172877120056</v>
+        <v>0.8267172877120058</v>
       </c>
       <c r="E71">
-        <v>0.7828800134135524</v>
+        <v>0.7828800134135527</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,7 +1584,7 @@
         <v>0.8352650937627262</v>
       </c>
       <c r="D72">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691253</v>
       </c>
       <c r="E72">
         <v>0.7581076408841886</v>
@@ -1598,10 +1598,10 @@
         <v>0.9255885690112506</v>
       </c>
       <c r="C73">
-        <v>0.8352650937627263</v>
+        <v>0.8352650937627262</v>
       </c>
       <c r="D73">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691251</v>
       </c>
       <c r="E73">
         <v>0.7581076408841887</v>
@@ -1615,10 +1615,10 @@
         <v>0.9255885690112505</v>
       </c>
       <c r="C74">
-        <v>0.8352650937627262</v>
+        <v>0.8352650937627261</v>
       </c>
       <c r="D74">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691253</v>
       </c>
       <c r="E74">
         <v>0.7581076408841886</v>
@@ -1629,13 +1629,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.8208704556197061</v>
+        <v>0.8208704556197062</v>
       </c>
       <c r="C75">
-        <v>0.7365084151955984</v>
+        <v>0.7365084151955983</v>
       </c>
       <c r="D75">
-        <v>0.7066970799631025</v>
+        <v>0.7066970799631023</v>
       </c>
       <c r="E75">
         <v>0.6700870654048958</v>
@@ -1649,10 +1649,10 @@
         <v>0.9245829465161612</v>
       </c>
       <c r="C76">
-        <v>0.8477388321520788</v>
+        <v>0.8477388321520787</v>
       </c>
       <c r="D76">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="E76">
         <v>0.7707099443511993</v>
@@ -1666,13 +1666,13 @@
         <v>0.9866293584994589</v>
       </c>
       <c r="C77">
-        <v>0.889524215207159</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="D77">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643635</v>
       </c>
       <c r="E77">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1683,13 +1683,13 @@
         <v>0.986629358499459</v>
       </c>
       <c r="C78">
-        <v>0.889524215207159</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="D78">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643632</v>
       </c>
       <c r="E78">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1700,13 +1700,13 @@
         <v>0.986629358499459</v>
       </c>
       <c r="C79">
-        <v>0.8895242152071589</v>
+        <v>0.889524215207159</v>
       </c>
       <c r="D79">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643634</v>
       </c>
       <c r="E79">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1717,13 +1717,13 @@
         <v>0.986629358499459</v>
       </c>
       <c r="C80">
-        <v>0.8895242152071589</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="D80">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643634</v>
       </c>
       <c r="E80">
-        <v>0.8213211642367547</v>
+        <v>0.8213211642367546</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.7888701503715603</v>
+        <v>0.7888701503715604</v>
       </c>
       <c r="C83">
         <v>0.6971700674261154</v>
       </c>
       <c r="D83">
-        <v>0.6553766044177659</v>
+        <v>0.6553766044177657</v>
       </c>
       <c r="E83">
-        <v>0.6064352938313579</v>
+        <v>0.6064352938313574</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.7888701503715603</v>
+        <v>0.7888701503715604</v>
       </c>
       <c r="C84">
         <v>0.6971700674261154</v>
       </c>
       <c r="D84">
-        <v>0.655376604417766</v>
+        <v>0.6553766044177657</v>
       </c>
       <c r="E84">
-        <v>0.6064352938313577</v>
+        <v>0.6064352938313574</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1805,7 +1805,7 @@
         <v>0.7299307709351471</v>
       </c>
       <c r="D85">
-        <v>0.6974589781694057</v>
+        <v>0.6974589781694058</v>
       </c>
       <c r="E85">
         <v>0.6150643655826664</v>
@@ -1822,10 +1822,10 @@
         <v>0.7299307709351471</v>
       </c>
       <c r="D86">
-        <v>0.6974589781694057</v>
+        <v>0.6974589781694058</v>
       </c>
       <c r="E86">
-        <v>0.6150643655826664</v>
+        <v>0.6150643655826663</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1833,13 +1833,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8860419244056278</v>
+        <v>0.8860419244056279</v>
       </c>
       <c r="C87">
         <v>0.8107090083473764</v>
       </c>
       <c r="D87">
-        <v>0.7779940719970004</v>
+        <v>0.7779940719970005</v>
       </c>
       <c r="E87">
         <v>0.7121093787771915</v>
@@ -1850,10 +1850,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8860419244056278</v>
+        <v>0.8860419244056279</v>
       </c>
       <c r="C88">
-        <v>0.8107090083473762</v>
+        <v>0.8107090083473764</v>
       </c>
       <c r="D88">
         <v>0.7779940719970004</v>
@@ -1873,7 +1873,7 @@
         <v>0.8107090083473764</v>
       </c>
       <c r="D89">
-        <v>0.7779940719970002</v>
+        <v>0.7779940719970005</v>
       </c>
       <c r="E89">
         <v>0.7121093787771916</v>
@@ -1935,7 +1935,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.175077060595408</v>
+        <v>1.175077060595409</v>
       </c>
       <c r="C93">
         <v>1.249726670482553</v>
@@ -1978,7 +1978,7 @@
         <v>1.369135421711549</v>
       </c>
       <c r="E95">
-        <v>1.272856869302649</v>
+        <v>1.27285686930265</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2020,7 +2020,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.098904659108549</v>
+        <v>1.09890465910855</v>
       </c>
       <c r="C98">
         <v>1.168095083927899</v>
@@ -2040,7 +2040,7 @@
         <v>1.101002478069524</v>
       </c>
       <c r="C99">
-        <v>1.172068545691936</v>
+        <v>1.172068545691937</v>
       </c>
       <c r="D99">
         <v>1.289695123058631</v>
@@ -2080,7 +2080,7 @@
         <v>1.381578209500652</v>
       </c>
       <c r="E101">
-        <v>1.278893289744995</v>
+        <v>1.278893289744996</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2088,7 +2088,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.174534898661371</v>
+        <v>1.174534898661372</v>
       </c>
       <c r="C102">
         <v>1.250079001251787</v>
@@ -2148,7 +2148,7 @@
         <v>1.250208442093868</v>
       </c>
       <c r="E105">
-        <v>1.176927144993836</v>
+        <v>1.176927144993837</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2247,7 +2247,7 @@
         <v>1.066164918304125</v>
       </c>
       <c r="D111">
-        <v>1.148172406200212</v>
+        <v>1.148172406200213</v>
       </c>
       <c r="E111">
         <v>1.092340318007461</v>
@@ -2267,7 +2267,7 @@
         <v>1.20072627227121</v>
       </c>
       <c r="E112">
-        <v>1.117401352701571</v>
+        <v>1.117401352701572</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.9876951688230673</v>
+        <v>0.9876951688230675</v>
       </c>
       <c r="C113">
         <v>1.051517831866565</v>
@@ -2292,7 +2292,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.9832065458893351</v>
+        <v>0.9832065458893352</v>
       </c>
       <c r="C114">
         <v>1.028981224163587</v>
@@ -2335,7 +2335,7 @@
         <v>1.20072627227121</v>
       </c>
       <c r="E116">
-        <v>1.117401352701571</v>
+        <v>1.117401352701572</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,13 +2343,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9875551609580629</v>
+        <v>0.9875551609580631</v>
       </c>
       <c r="C117">
-        <v>1.051230063253877</v>
+        <v>1.051230063253878</v>
       </c>
       <c r="D117">
-        <v>1.127190742132348</v>
+        <v>1.127190742132349</v>
       </c>
       <c r="E117">
         <v>1.066750841160022</v>
@@ -2360,16 +2360,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9367125836332728</v>
+        <v>0.9367125836332729</v>
       </c>
       <c r="C118">
-        <v>0.9590733254899507</v>
+        <v>0.9590733254899509</v>
       </c>
       <c r="D118">
-        <v>1.027313953758271</v>
+        <v>1.027313953758272</v>
       </c>
       <c r="E118">
-        <v>0.987237735674063</v>
+        <v>0.9872377356740631</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2377,10 +2377,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.9050322532629173</v>
+        <v>0.9050322532629174</v>
       </c>
       <c r="C119">
-        <v>0.9351097553932523</v>
+        <v>0.9351097553932524</v>
       </c>
       <c r="D119">
         <v>0.9957244724255573</v>
@@ -2462,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.05427173368605</v>
+        <v>1.054271733686051</v>
       </c>
       <c r="C124">
         <v>1.118554745461007</v>
@@ -2485,7 +2485,7 @@
         <v>1.097680311283931</v>
       </c>
       <c r="D125">
-        <v>1.18191665832056</v>
+        <v>1.181916658320559</v>
       </c>
       <c r="E125">
         <v>1.131972037820231</v>
@@ -2516,7 +2516,7 @@
         <v>1.090317849895854</v>
       </c>
       <c r="C127">
-        <v>1.13338605128433</v>
+        <v>1.133386051284331</v>
       </c>
       <c r="D127">
         <v>1.21892054339232</v>
@@ -2604,7 +2604,7 @@
         <v>1.301805833673496</v>
       </c>
       <c r="D132">
-        <v>1.447786151024257</v>
+        <v>1.447786151024256</v>
       </c>
       <c r="E132">
         <v>1.335039437269032</v>
@@ -2675,7 +2675,7 @@
         <v>1.408474038488178</v>
       </c>
       <c r="E136">
-        <v>1.30451489825524</v>
+        <v>1.304514898255241</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2689,7 +2689,7 @@
         <v>1.284563464805539</v>
       </c>
       <c r="D137">
-        <v>1.402585839898446</v>
+        <v>1.402585839898447</v>
       </c>
       <c r="E137">
         <v>1.300557252473238</v>
@@ -2709,7 +2709,7 @@
         <v>1.402585839898447</v>
       </c>
       <c r="E138">
-        <v>1.300557252473238</v>
+        <v>1.300557252473239</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>1.33223813519316</v>
       </c>
       <c r="E143">
-        <v>1.271685861212972</v>
+        <v>1.271685861212973</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2805,10 +2805,10 @@
         <v>1.139720469505226</v>
       </c>
       <c r="C144">
-        <v>1.209590308770438</v>
+        <v>1.209590308770439</v>
       </c>
       <c r="D144">
-        <v>1.303060391691849</v>
+        <v>1.30306039169185</v>
       </c>
       <c r="E144">
         <v>1.236966255037426</v>
@@ -2822,10 +2822,10 @@
         <v>1.139720469505226</v>
       </c>
       <c r="C145">
-        <v>1.209590308770438</v>
+        <v>1.209590308770439</v>
       </c>
       <c r="D145">
-        <v>1.303060391691849</v>
+        <v>1.30306039169185</v>
       </c>
       <c r="E145">
         <v>1.236966255037426</v>
@@ -2839,7 +2839,7 @@
         <v>1.107473009458426</v>
       </c>
       <c r="C146">
-        <v>1.154555633349318</v>
+        <v>1.154555633349319</v>
       </c>
       <c r="D146">
         <v>1.218479160085526</v>
@@ -2876,7 +2876,7 @@
         <v>1.25378215172773</v>
       </c>
       <c r="D148">
-        <v>1.346503528889026</v>
+        <v>1.346503528889025</v>
       </c>
       <c r="E148">
         <v>1.261723598661856</v>
@@ -3060,7 +3060,7 @@
         <v>1.085783781677262</v>
       </c>
       <c r="C159">
-        <v>1.142860917454319</v>
+        <v>1.14286091745432</v>
       </c>
       <c r="D159">
         <v>1.239482688423538</v>
@@ -3114,7 +3114,7 @@
         <v>1.017566903844292</v>
       </c>
       <c r="D162">
-        <v>1.071884097145306</v>
+        <v>1.071884097145307</v>
       </c>
       <c r="E162">
         <v>1.015591647342346</v>
@@ -3196,10 +3196,10 @@
         <v>0.9655757572761481</v>
       </c>
       <c r="C167">
-        <v>0.9957159271312106</v>
+        <v>0.9957159271312108</v>
       </c>
       <c r="D167">
-        <v>1.054587700081</v>
+        <v>1.054587700080999</v>
       </c>
       <c r="E167">
         <v>0.9943692504688342</v>
@@ -3213,13 +3213,13 @@
         <v>0.9250951675788998</v>
       </c>
       <c r="C168">
-        <v>0.9334908460944756</v>
+        <v>0.9334908460944757</v>
       </c>
       <c r="D168">
-        <v>0.9867298985694131</v>
+        <v>0.9867298985694128</v>
       </c>
       <c r="E168">
-        <v>0.9382269806019972</v>
+        <v>0.9382269806019973</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3301,7 +3301,7 @@
         <v>1.309361056867844</v>
       </c>
       <c r="D173">
-        <v>1.446910939173828</v>
+        <v>1.446910939173827</v>
       </c>
       <c r="E173">
         <v>1.332169525876278</v>
@@ -3352,7 +3352,7 @@
         <v>1.285978420717516</v>
       </c>
       <c r="D176">
-        <v>1.378517799506158</v>
+        <v>1.378517799506157</v>
       </c>
       <c r="E176">
         <v>1.288772202178266</v>
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1.175781300991304</v>
+        <v>1.175781300991305</v>
       </c>
       <c r="C180">
         <v>1.224600856027</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.175781300991304</v>
+        <v>1.175781300991305</v>
       </c>
       <c r="C181">
         <v>1.224600856027</v>
@@ -3440,7 +3440,7 @@
         <v>1.31568272446864</v>
       </c>
       <c r="E181">
-        <v>1.241972540625816</v>
+        <v>1.241972540625817</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3465,7 +3465,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1.110720573632781</v>
+        <v>1.110720573632782</v>
       </c>
       <c r="C183">
         <v>1.13385458926045</v>
@@ -3491,7 +3491,7 @@
         <v>1.294123649961128</v>
       </c>
       <c r="E184">
-        <v>1.205601397461044</v>
+        <v>1.205601397461045</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3516,13 +3516,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.068228748406426</v>
+        <v>1.068228748406427</v>
       </c>
       <c r="C186">
         <v>1.102250399692132</v>
       </c>
       <c r="D186">
-        <v>1.150644482481302</v>
+        <v>1.150644482481303</v>
       </c>
       <c r="E186">
         <v>1.080113689543</v>
@@ -3533,7 +3533,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1.112361535767751</v>
+        <v>1.112361535767752</v>
       </c>
       <c r="C187">
         <v>1.153977857919424</v>
@@ -3570,7 +3570,7 @@
         <v>1.056712123071369</v>
       </c>
       <c r="C189">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="D189">
         <v>1.121164279993342</v>
@@ -3587,7 +3587,7 @@
         <v>1.056712123071369</v>
       </c>
       <c r="C190">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="D190">
         <v>1.121164279993342</v>
@@ -3601,7 +3601,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.157033480095657</v>
+        <v>1.157033480095658</v>
       </c>
       <c r="C191">
         <v>1.209634662675369</v>
@@ -3610,7 +3610,7 @@
         <v>1.282543986706619</v>
       </c>
       <c r="E191">
-        <v>1.193545541320197</v>
+        <v>1.193545541320198</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3635,7 +3635,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.174534898661371</v>
+        <v>1.174534898661372</v>
       </c>
       <c r="C193">
         <v>1.250079001251787</v>
@@ -3661,7 +3661,7 @@
         <v>1.394667909652504</v>
       </c>
       <c r="E194">
-        <v>1.288715773396881</v>
+        <v>1.288715773396882</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3706,7 +3706,7 @@
         <v>1.151444789016749</v>
       </c>
       <c r="C197">
-        <v>1.225457632476596</v>
+        <v>1.225457632476597</v>
       </c>
       <c r="D197">
         <v>1.332076239072204</v>
@@ -3729,7 +3729,7 @@
         <v>1.347463464886883</v>
       </c>
       <c r="E198">
-        <v>1.240685321928822</v>
+        <v>1.240685321928823</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3862,7 +3862,7 @@
         <v>0.8142196236254119</v>
       </c>
       <c r="D206">
-        <v>0.8804260560778616</v>
+        <v>0.8804260560778617</v>
       </c>
       <c r="E206">
         <v>0.9301657678705668</v>
@@ -3876,13 +3876,13 @@
         <v>0.8948955690946078</v>
       </c>
       <c r="C207">
-        <v>0.8234093095378108</v>
+        <v>0.8234093095378109</v>
       </c>
       <c r="D207">
-        <v>0.8944549773798817</v>
+        <v>0.8944549773798818</v>
       </c>
       <c r="E207">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3896,10 +3896,10 @@
         <v>0.8234093095378109</v>
       </c>
       <c r="D208">
-        <v>0.8944549773798817</v>
+        <v>0.8944549773798818</v>
       </c>
       <c r="E208">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3916,7 +3916,7 @@
         <v>0.8971992130381921</v>
       </c>
       <c r="E209">
-        <v>0.94746509259931</v>
+        <v>0.9474650925993099</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3941,7 +3941,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.8919593758744734</v>
+        <v>0.8919593758744733</v>
       </c>
       <c r="C211">
         <v>0.8242141311379201</v>
@@ -3958,7 +3958,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.8873663942837534</v>
+        <v>0.8873663942837535</v>
       </c>
       <c r="C212">
         <v>0.8275398123656136</v>
@@ -3984,7 +3984,7 @@
         <v>0.8944549773798818</v>
       </c>
       <c r="E213">
-        <v>0.9569267071066848</v>
+        <v>0.9569267071066846</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4012,7 +4012,7 @@
         <v>0.9087435958793617</v>
       </c>
       <c r="C215">
-        <v>0.839350141326217</v>
+        <v>0.8393501413262172</v>
       </c>
       <c r="D215">
         <v>0.8998305285856282</v>
@@ -4032,7 +4032,7 @@
         <v>0.8083932509495814</v>
       </c>
       <c r="D216">
-        <v>0.86688764805711</v>
+        <v>0.8668876480571103</v>
       </c>
       <c r="E216">
         <v>0.9463783770560574</v>
@@ -4046,10 +4046,10 @@
         <v>0.8456076417967796</v>
       </c>
       <c r="C217">
-        <v>0.7819319085467746</v>
+        <v>0.7819319085467747</v>
       </c>
       <c r="D217">
-        <v>0.835385530230217</v>
+        <v>0.8353855302302171</v>
       </c>
       <c r="E217">
         <v>0.904201816446126</v>
@@ -4063,10 +4063,10 @@
         <v>0.8456209602715554</v>
       </c>
       <c r="C218">
-        <v>0.7680801518402601</v>
+        <v>0.7680801518402602</v>
       </c>
       <c r="D218">
-        <v>0.8179284645070419</v>
+        <v>0.817928464507042</v>
       </c>
       <c r="E218">
         <v>0.8881883598026102</v>
@@ -4145,7 +4145,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.8215192347433867</v>
+        <v>0.8215192347433868</v>
       </c>
       <c r="C223">
         <v>0.7315212372678412</v>
@@ -4162,7 +4162,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.8965104488955125</v>
+        <v>0.8965104488955123</v>
       </c>
       <c r="C224">
         <v>0.8058170543502707</v>
@@ -4171,7 +4171,7 @@
         <v>0.856797578746385</v>
       </c>
       <c r="E224">
-        <v>0.9726270951590622</v>
+        <v>0.9726270951590621</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,7 +4179,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.9293348202180117</v>
+        <v>0.9293348202180115</v>
       </c>
       <c r="C225">
         <v>0.8558668951986635</v>
@@ -4199,7 +4199,7 @@
         <v>0.9298793792022403</v>
       </c>
       <c r="C226">
-        <v>0.8417252657493438</v>
+        <v>0.8417252657493439</v>
       </c>
       <c r="D226">
         <v>0.9017281465140832</v>
@@ -4213,10 +4213,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.9303474061362611</v>
+        <v>0.930347406136261</v>
       </c>
       <c r="C227">
-        <v>0.8621128581708872</v>
+        <v>0.8621128581708875</v>
       </c>
       <c r="D227">
         <v>0.9344268561275599</v>
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.863619611836663</v>
+        <v>0.8636196118366632</v>
       </c>
       <c r="C229">
         <v>0.8051772679733189</v>
@@ -4270,7 +4270,7 @@
         <v>0.8278587793711369</v>
       </c>
       <c r="D230">
-        <v>0.8659672987945561</v>
+        <v>0.8659672987945564</v>
       </c>
       <c r="E230">
         <v>0.8905012836964148</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.8841510012473106</v>
+        <v>0.8841510012473108</v>
       </c>
       <c r="C231">
         <v>0.8085758341003026</v>
@@ -4301,7 +4301,7 @@
         <v>0.8533899082020246</v>
       </c>
       <c r="C232">
-        <v>0.7804517977919947</v>
+        <v>0.7804517977919946</v>
       </c>
       <c r="D232">
         <v>0.8249007655414692</v>
@@ -4315,10 +4315,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.8160926197200653</v>
+        <v>0.8160926197200654</v>
       </c>
       <c r="C233">
-        <v>0.7256676905499745</v>
+        <v>0.7256676905499744</v>
       </c>
       <c r="D233">
         <v>0.7637117102324213</v>
@@ -4338,7 +4338,7 @@
         <v>0.744938311570047</v>
       </c>
       <c r="D234">
-        <v>0.7769349057433346</v>
+        <v>0.7769349057433347</v>
       </c>
       <c r="E234">
         <v>0.8253695944367367</v>
@@ -4355,7 +4355,7 @@
         <v>0.744938311570047</v>
       </c>
       <c r="D235">
-        <v>0.7769349057433347</v>
+        <v>0.7769349057433348</v>
       </c>
       <c r="E235">
         <v>0.8253695944367367</v>
@@ -4366,7 +4366,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.8123267237774706</v>
+        <v>0.8123267237774705</v>
       </c>
       <c r="C236">
         <v>0.7305300969339963</v>
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.9277606002126632</v>
+        <v>0.9277606002126629</v>
       </c>
       <c r="C237">
         <v>0.8406593567028534</v>
@@ -4400,10 +4400,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.9268706334098371</v>
+        <v>0.926870633409837</v>
       </c>
       <c r="C238">
-        <v>0.854339044450155</v>
+        <v>0.8543390444501551</v>
       </c>
       <c r="D238">
         <v>0.9205044781481359</v>
@@ -4420,7 +4420,7 @@
         <v>0.8961402889861323</v>
       </c>
       <c r="C239">
-        <v>0.7962004900320279</v>
+        <v>0.7962004900320281</v>
       </c>
       <c r="D239">
         <v>0.854160807195698</v>
@@ -4454,7 +4454,7 @@
         <v>0.8508411867259373</v>
       </c>
       <c r="C241">
-        <v>0.7570520903993678</v>
+        <v>0.7570520903993679</v>
       </c>
       <c r="D241">
         <v>0.8113813529885117</v>
@@ -4494,7 +4494,7 @@
         <v>0.8578165283051602</v>
       </c>
       <c r="E243">
-        <v>0.8733015098447338</v>
+        <v>0.873301509844734</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4508,7 +4508,7 @@
         <v>0.8040952809896873</v>
       </c>
       <c r="D244">
-        <v>0.8373270303248782</v>
+        <v>0.8373270303248783</v>
       </c>
       <c r="E244">
         <v>0.8663343447877091</v>
@@ -4528,7 +4528,7 @@
         <v>0.7878741821705153</v>
       </c>
       <c r="E245">
-        <v>0.8176034447753978</v>
+        <v>0.8176034447753979</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4542,7 +4542,7 @@
         <v>0.7272473518687613</v>
       </c>
       <c r="D246">
-        <v>0.7531921206056752</v>
+        <v>0.7531921206056753</v>
       </c>
       <c r="E246">
         <v>0.788272237109519</v>
@@ -4559,10 +4559,10 @@
         <v>0.7272473518687613</v>
       </c>
       <c r="D247">
-        <v>0.7531921206056752</v>
+        <v>0.7531921206056755</v>
       </c>
       <c r="E247">
-        <v>0.7882722371095189</v>
+        <v>0.788272237109519</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.8602588324368802</v>
+        <v>0.8602588324368803</v>
       </c>
       <c r="C249">
         <v>0.7586975324260161</v>
       </c>
       <c r="D249">
-        <v>0.8055735104242306</v>
+        <v>0.8055735104242308</v>
       </c>
       <c r="E249">
-        <v>0.9024661571462053</v>
+        <v>0.9024661571462052</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4641,7 +4641,7 @@
         <v>0.9558984224517549</v>
       </c>
       <c r="C252">
-        <v>0.9491158409142877</v>
+        <v>0.9491158409142879</v>
       </c>
       <c r="D252">
         <v>1.006935099850223</v>
@@ -4655,7 +4655,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.9263869836751862</v>
+        <v>0.9263869836751865</v>
       </c>
       <c r="C253">
         <v>0.9087627732857015</v>
@@ -4664,7 +4664,7 @@
         <v>0.9672535149364031</v>
       </c>
       <c r="E253">
-        <v>0.9608788413174363</v>
+        <v>0.9608788413174364</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4672,7 +4672,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.9879407027678667</v>
+        <v>0.9879407027678669</v>
       </c>
       <c r="C254">
         <v>0.9904433722226434</v>
@@ -4689,7 +4689,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.9263869836751862</v>
+        <v>0.9263869836751863</v>
       </c>
       <c r="C255">
         <v>0.9087627732857013</v>
@@ -4712,10 +4712,10 @@
         <v>0.8093043668785491</v>
       </c>
       <c r="D256">
-        <v>0.849552207801616</v>
+        <v>0.8495522078016161</v>
       </c>
       <c r="E256">
-        <v>0.8595108111352492</v>
+        <v>0.8595108111352494</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.8619644418680061</v>
+        <v>0.8619644418680064</v>
       </c>
       <c r="C258">
         <v>0.8491542143078084</v>
@@ -4749,7 +4749,7 @@
         <v>0.8946003041593702</v>
       </c>
       <c r="E258">
-        <v>0.8708983838614268</v>
+        <v>0.8708983838614267</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,16 +4757,16 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.8619644418680062</v>
+        <v>0.8619644418680064</v>
       </c>
       <c r="C259">
         <v>0.8491542143078084</v>
       </c>
       <c r="D259">
-        <v>0.89460030415937</v>
+        <v>0.8946003041593701</v>
       </c>
       <c r="E259">
-        <v>0.8708983838614268</v>
+        <v>0.8708983838614267</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4780,10 +4780,10 @@
         <v>0.524369353455499</v>
       </c>
       <c r="D260">
-        <v>0.509548800748677</v>
+        <v>0.5095488007486771</v>
       </c>
       <c r="E260">
-        <v>0.4363715997134038</v>
+        <v>0.4363715997134037</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>0.5235156429979051</v>
       </c>
       <c r="C262">
-        <v>0.506218355729783</v>
+        <v>0.5062183557297831</v>
       </c>
       <c r="D262">
         <v>0.4919172296237261</v>
       </c>
       <c r="E262">
-        <v>0.4208230152018241</v>
+        <v>0.420823015201824</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>0.495064323303777</v>
       </c>
       <c r="C263">
-        <v>0.4727440690444402</v>
+        <v>0.4727440690444403</v>
       </c>
       <c r="D263">
         <v>0.4548725245586733</v>
       </c>
       <c r="E263">
-        <v>0.3948250551343271</v>
+        <v>0.394825055134327</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,7 +4845,7 @@
         <v>0.4550636706178324</v>
       </c>
       <c r="C264">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814363</v>
       </c>
       <c r="D264">
         <v>0.4128301481524451</v>
@@ -4862,7 +4862,7 @@
         <v>0.4550636706178324</v>
       </c>
       <c r="C265">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814365</v>
       </c>
       <c r="D265">
         <v>0.4128301481524452</v>
@@ -4876,10 +4876,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.5819984511206945</v>
+        <v>0.5819984511206946</v>
       </c>
       <c r="C266">
-        <v>0.5462183570843413</v>
+        <v>0.5462183570843414</v>
       </c>
       <c r="D266">
         <v>0.5281776406548778</v>
@@ -4896,7 +4896,7 @@
         <v>0.4550636706178324</v>
       </c>
       <c r="C267">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814364</v>
       </c>
       <c r="D267">
         <v>0.4128301481524451</v>
@@ -4964,13 +4964,13 @@
         <v>0.4533141275170546</v>
       </c>
       <c r="C271">
-        <v>0.3810595493644698</v>
+        <v>0.3810595493644699</v>
       </c>
       <c r="D271">
         <v>0.3447118090787352</v>
       </c>
       <c r="E271">
-        <v>0.3157287807578316</v>
+        <v>0.3157287807578315</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4981,13 +4981,13 @@
         <v>0.4533141275170546</v>
       </c>
       <c r="C272">
-        <v>0.3810595493644698</v>
+        <v>0.3810595493644699</v>
       </c>
       <c r="D272">
         <v>0.3447118090787352</v>
       </c>
       <c r="E272">
-        <v>0.3157287807578316</v>
+        <v>0.3157287807578315</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4995,10 +4995,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.399354962869952</v>
+        <v>0.3993549628699518</v>
       </c>
       <c r="C273">
-        <v>0.352298947136196</v>
+        <v>0.3522989471361961</v>
       </c>
       <c r="D273">
         <v>0.3231852896837347</v>
@@ -5012,10 +5012,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.399354962869952</v>
+        <v>0.3993549628699519</v>
       </c>
       <c r="C274">
-        <v>0.352298947136196</v>
+        <v>0.3522989471361961</v>
       </c>
       <c r="D274">
         <v>0.3231852896837347</v>
@@ -5049,7 +5049,7 @@
         <v>0.484299852171804</v>
       </c>
       <c r="C276">
-        <v>0.4135400872276676</v>
+        <v>0.4135400872276677</v>
       </c>
       <c r="D276">
         <v>0.3934087881013087</v>
@@ -5066,7 +5066,7 @@
         <v>0.6726417989348108</v>
       </c>
       <c r="C277">
-        <v>0.5685647345366673</v>
+        <v>0.5685647345366674</v>
       </c>
       <c r="D277">
         <v>0.555263714323282</v>
@@ -5089,7 +5089,7 @@
         <v>0.7258319702196299</v>
       </c>
       <c r="E278">
-        <v>0.7686062539797465</v>
+        <v>0.7686062539797464</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5100,10 +5100,10 @@
         <v>0.8362838410691956</v>
       </c>
       <c r="C279">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="D279">
-        <v>0.7518259948556544</v>
+        <v>0.7518259948556545</v>
       </c>
       <c r="E279">
         <v>0.8059353633575291</v>
@@ -5114,13 +5114,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.8362838410691957</v>
+        <v>0.8362838410691958</v>
       </c>
       <c r="C280">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="D280">
-        <v>0.7518259948556544</v>
+        <v>0.7518259948556545</v>
       </c>
       <c r="E280">
         <v>0.8059353633575291</v>
@@ -5131,7 +5131,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.4726303665616906</v>
+        <v>0.4726303665616907</v>
       </c>
       <c r="C281">
         <v>0.3965967444816724</v>
@@ -5148,16 +5148,16 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C282">
         <v>0.3699742683946552</v>
       </c>
       <c r="D282">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="E282">
-        <v>0.3425411672272783</v>
+        <v>0.3425411672272782</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C283">
         <v>0.3699742683946552</v>
       </c>
       <c r="D283">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="E283">
-        <v>0.3425411672272783</v>
+        <v>0.3425411672272782</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,13 +5182,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C284">
         <v>0.3699742683946552</v>
       </c>
       <c r="D284">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="E284">
         <v>0.3425411672272782</v>
@@ -5219,7 +5219,7 @@
         <v>0.8362838410691956</v>
       </c>
       <c r="C286">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="D286">
         <v>0.7518259948556544</v>
@@ -5233,7 +5233,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.7331232100414067</v>
+        <v>0.7331232100414068</v>
       </c>
       <c r="C287">
         <v>0.730666264809081</v>
@@ -5242,7 +5242,7 @@
         <v>0.7504349112302618</v>
       </c>
       <c r="E287">
-        <v>0.7103640929175982</v>
+        <v>0.7103640929175983</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.5440916547068909</v>
+        <v>0.5440916547068908</v>
       </c>
       <c r="C288">
-        <v>0.5326267039336133</v>
+        <v>0.5326267039336134</v>
       </c>
       <c r="D288">
         <v>0.5357585850035108</v>
       </c>
       <c r="E288">
-        <v>0.4997556208338758</v>
+        <v>0.4997556208338757</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5301,16 +5301,16 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.4988360352419736</v>
+        <v>0.4988360352419737</v>
       </c>
       <c r="C291">
-        <v>0.4858887741255705</v>
+        <v>0.4858887741255707</v>
       </c>
       <c r="D291">
         <v>0.4858012677890224</v>
       </c>
       <c r="E291">
-        <v>0.4508805816432575</v>
+        <v>0.4508805816432574</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>0.608143860604305</v>
       </c>
       <c r="C292">
-        <v>0.5876380785414956</v>
+        <v>0.5876380785414957</v>
       </c>
       <c r="D292">
         <v>0.5932854298055513</v>
       </c>
       <c r="E292">
-        <v>0.5666322707407208</v>
+        <v>0.5666322707407209</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,13 +5335,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.6146023992903217</v>
+        <v>0.6146023992903215</v>
       </c>
       <c r="C293">
         <v>0.5967620644225142</v>
       </c>
       <c r="D293">
-        <v>0.6031214066653438</v>
+        <v>0.6031214066653436</v>
       </c>
       <c r="E293">
         <v>0.5736958747806057</v>
@@ -5355,13 +5355,13 @@
         <v>0.6092669107468113</v>
       </c>
       <c r="C294">
-        <v>0.5729150198757655</v>
+        <v>0.5729150198757658</v>
       </c>
       <c r="D294">
-        <v>0.5781284581803321</v>
+        <v>0.5781284581803322</v>
       </c>
       <c r="E294">
-        <v>0.5498526556488604</v>
+        <v>0.5498526556488603</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>0.7751950753664869</v>
       </c>
       <c r="C295">
-        <v>0.7830427501973282</v>
+        <v>0.7830427501973284</v>
       </c>
       <c r="D295">
         <v>0.7791546412653062</v>
       </c>
       <c r="E295">
-        <v>0.6992172339597256</v>
+        <v>0.6992172339597255</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,7 +5389,7 @@
         <v>0.796920161360037</v>
       </c>
       <c r="C296">
-        <v>0.8115916444011382</v>
+        <v>0.8115916444011383</v>
       </c>
       <c r="D296">
         <v>0.8143728028667271</v>
@@ -5403,16 +5403,16 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.7618535942282593</v>
+        <v>0.7618535942282595</v>
       </c>
       <c r="C297">
         <v>0.7562033970384565</v>
       </c>
       <c r="D297">
-        <v>0.7517873093809606</v>
+        <v>0.7517873093809605</v>
       </c>
       <c r="E297">
-        <v>0.6782422151709691</v>
+        <v>0.6782422151709692</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5426,10 +5426,10 @@
         <v>0.7454307066512544</v>
       </c>
       <c r="D298">
-        <v>0.7351970719136196</v>
+        <v>0.7351970719136195</v>
       </c>
       <c r="E298">
-        <v>0.6547340958218635</v>
+        <v>0.6547340958218637</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5457,7 +5457,7 @@
         <v>0.7751950753664869</v>
       </c>
       <c r="C300">
-        <v>0.7830427501973283</v>
+        <v>0.7830427501973284</v>
       </c>
       <c r="D300">
         <v>0.7791546412653062</v>
@@ -5480,7 +5480,7 @@
         <v>0.784802389326912</v>
       </c>
       <c r="E301">
-        <v>0.7119869809239936</v>
+        <v>0.7119869809239935</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5491,13 +5491,13 @@
         <v>0.6802791438261621</v>
       </c>
       <c r="C302">
-        <v>0.6576461462162275</v>
+        <v>0.6576461462162277</v>
       </c>
       <c r="D302">
-        <v>0.6400242975435445</v>
+        <v>0.6400242975435444</v>
       </c>
       <c r="E302">
-        <v>0.5836854588172359</v>
+        <v>0.583685458817236</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5508,7 +5508,7 @@
         <v>0.6816005562533097</v>
       </c>
       <c r="C303">
-        <v>0.6407164042111627</v>
+        <v>0.6407164042111628</v>
       </c>
       <c r="D303">
         <v>0.6234701509462625</v>
@@ -5539,10 +5539,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.7337024589577978</v>
+        <v>0.733702458957798</v>
       </c>
       <c r="C305">
-        <v>0.7205529984836472</v>
+        <v>0.7205529984836474</v>
       </c>
       <c r="D305">
         <v>0.708301372195183</v>
@@ -5559,13 +5559,13 @@
         <v>0.79749069549482</v>
       </c>
       <c r="C306">
-        <v>0.7906278121578855</v>
+        <v>0.7906278121578857</v>
       </c>
       <c r="D306">
         <v>0.7856632074659516</v>
       </c>
       <c r="E306">
-        <v>0.7129313311586543</v>
+        <v>0.712931331158654</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5573,16 +5573,16 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.7337024589577978</v>
+        <v>0.733702458957798</v>
       </c>
       <c r="C307">
-        <v>0.7205529984836472</v>
+        <v>0.7205529984836474</v>
       </c>
       <c r="D307">
         <v>0.7083013721951831</v>
       </c>
       <c r="E307">
-        <v>0.6388727205901421</v>
+        <v>0.638872720590142</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5593,13 +5593,13 @@
         <v>0.7456024170262969</v>
       </c>
       <c r="C308">
-        <v>0.7305101132729026</v>
+        <v>0.7305101132729027</v>
       </c>
       <c r="D308">
         <v>0.7202205017101024</v>
       </c>
       <c r="E308">
-        <v>0.6650053230018601</v>
+        <v>0.6650053230018598</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5610,13 +5610,13 @@
         <v>0.79749069549482</v>
       </c>
       <c r="C309">
-        <v>0.7906278121578855</v>
+        <v>0.7906278121578857</v>
       </c>
       <c r="D309">
         <v>0.7856632074659518</v>
       </c>
       <c r="E309">
-        <v>0.7129313311586543</v>
+        <v>0.712931331158654</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,10 +5624,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.6845958193332689</v>
+        <v>0.6845958193332691</v>
       </c>
       <c r="C310">
-        <v>0.6637715908343846</v>
+        <v>0.6637715908343848</v>
       </c>
       <c r="D310">
         <v>0.6469148288959617</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.4988400316143125</v>
+        <v>0.4988400316143123</v>
       </c>
       <c r="C311">
-        <v>0.4468933857785959</v>
+        <v>0.4468933857785958</v>
       </c>
       <c r="D311">
         <v>0.4156109108966796</v>
       </c>
       <c r="E311">
-        <v>0.3737791669199273</v>
+        <v>0.3737791669199272</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.55931388262093</v>
+        <v>0.5593138826209298</v>
       </c>
       <c r="C312">
         <v>0.518744422824722</v>
       </c>
       <c r="D312">
-        <v>0.4988637928382763</v>
+        <v>0.4988637928382764</v>
       </c>
       <c r="E312">
-        <v>0.4536608612235345</v>
+        <v>0.4536608612235344</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5678,7 +5678,7 @@
         <v>0.4988400316143125</v>
       </c>
       <c r="C313">
-        <v>0.4468933857785958</v>
+        <v>0.4468933857785957</v>
       </c>
       <c r="D313">
         <v>0.4156109108966796</v>
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.4988400316143125</v>
+        <v>0.4988400316143123</v>
       </c>
       <c r="C314">
-        <v>0.4468933857785958</v>
+        <v>0.4468933857785957</v>
       </c>
       <c r="D314">
         <v>0.4156109108966796</v>
       </c>
       <c r="E314">
-        <v>0.3737791669199273</v>
+        <v>0.3737791669199272</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>1.24273031058221</v>
       </c>
       <c r="E316">
-        <v>1.148443006699093</v>
+        <v>1.148443006699094</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5769,7 +5769,7 @@
         <v>1.180866646630045</v>
       </c>
       <c r="E318">
-        <v>1.086034776198854</v>
+        <v>1.086034776198855</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1.038617209411511</v>
+        <v>1.038617209411512</v>
       </c>
       <c r="C319">
         <v>1.071265152675616</v>
@@ -5834,7 +5834,7 @@
         <v>0.9207502832719674</v>
       </c>
       <c r="D322">
-        <v>0.927875527669058</v>
+        <v>0.9278755276690579</v>
       </c>
       <c r="E322">
         <v>0.859328798088732</v>
@@ -5871,7 +5871,7 @@
         <v>1.117688378353019</v>
       </c>
       <c r="E324">
-        <v>1.01648629897908</v>
+        <v>1.016486298979081</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5919,7 +5919,7 @@
         <v>0.8957691010180271</v>
       </c>
       <c r="D327">
-        <v>0.8858059106784676</v>
+        <v>0.8858059106784675</v>
       </c>
       <c r="E327">
         <v>0.8112680598992087</v>
@@ -5930,16 +5930,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.9180422346812418</v>
+        <v>0.918042234681242</v>
       </c>
       <c r="C328">
         <v>0.8749750154028335</v>
       </c>
       <c r="D328">
-        <v>0.8660407321185912</v>
+        <v>0.8660407321185914</v>
       </c>
       <c r="E328">
-        <v>0.7896015354137937</v>
+        <v>0.7896015354137939</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5953,7 +5953,7 @@
         <v>0.8273859397555334</v>
       </c>
       <c r="D329">
-        <v>0.8134124331502495</v>
+        <v>0.8134124331502497</v>
       </c>
       <c r="E329">
         <v>0.7428201294576912</v>
@@ -5964,13 +5964,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.9180422346812418</v>
+        <v>0.918042234681242</v>
       </c>
       <c r="C330">
         <v>0.8749750154028336</v>
       </c>
       <c r="D330">
-        <v>0.8660407321185912</v>
+        <v>0.8660407321185914</v>
       </c>
       <c r="E330">
         <v>0.7896015354137939</v>
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.9810149758805858</v>
+        <v>0.9810149758805861</v>
       </c>
       <c r="C331">
-        <v>0.9715119672037645</v>
+        <v>0.9715119672037646</v>
       </c>
       <c r="D331">
         <v>0.9687510067980364</v>
       </c>
       <c r="E331">
-        <v>0.8727773758260147</v>
+        <v>0.8727773758260148</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6024,7 +6024,7 @@
         <v>1.071591756432291</v>
       </c>
       <c r="E333">
-        <v>0.998459817177742</v>
+        <v>0.9984598171777419</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6058,7 +6058,7 @@
         <v>0.9983092022421302</v>
       </c>
       <c r="E335">
-        <v>0.9473482621211888</v>
+        <v>0.9473482621211893</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,13 +6069,13 @@
         <v>0.8889828127405673</v>
       </c>
       <c r="C336">
-        <v>0.8894269244326976</v>
+        <v>0.8894269244326973</v>
       </c>
       <c r="D336">
-        <v>0.9171107627692812</v>
+        <v>0.9171107627692813</v>
       </c>
       <c r="E336">
-        <v>0.8560072840041235</v>
+        <v>0.8560072840041237</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6151,7 +6151,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.4610796374385149</v>
+        <v>0.4610796374385148</v>
       </c>
       <c r="C341">
         <v>0.4041060520154907</v>
@@ -6168,16 +6168,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.4561144641716984</v>
+        <v>0.4561144641716983</v>
       </c>
       <c r="C342">
-        <v>0.3939971384842973</v>
+        <v>0.3939971384842972</v>
       </c>
       <c r="D342">
         <v>0.4137374169090398</v>
       </c>
       <c r="E342">
-        <v>0.4636715430193322</v>
+        <v>0.4636715430193323</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6185,7 +6185,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.4561144641716984</v>
+        <v>0.4561144641716983</v>
       </c>
       <c r="C343">
         <v>0.3939971384842973</v>
@@ -6194,7 +6194,7 @@
         <v>0.4137374169090397</v>
       </c>
       <c r="E343">
-        <v>0.4636715430193322</v>
+        <v>0.4636715430193323</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6270,7 +6270,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.5942281462509807</v>
+        <v>0.5942281462509806</v>
       </c>
       <c r="C348">
         <v>0.51370987017669</v>
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.8340658108668558</v>
+        <v>0.8340658108668559</v>
       </c>
       <c r="C353">
         <v>0.7488977609660055</v>
@@ -6372,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.8050212515935741</v>
+        <v>0.8050212515935742</v>
       </c>
       <c r="C354">
         <v>0.7114166424154447</v>
@@ -6392,7 +6392,7 @@
         <v>0.8348387095478537</v>
       </c>
       <c r="C355">
-        <v>0.739849024754394</v>
+        <v>0.7398490247543941</v>
       </c>
       <c r="D355">
         <v>0.7989812674320738</v>
@@ -6406,7 +6406,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C356">
         <v>0.4986041991880584</v>
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C357">
         <v>0.4986041991880584</v>
@@ -6440,7 +6440,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C358">
         <v>0.4986041991880584</v>
@@ -6457,7 +6457,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.2815715122668316</v>
+        <v>0.2815715122668315</v>
       </c>
       <c r="C359">
         <v>0.2324530040284936</v>
@@ -6497,10 +6497,10 @@
         <v>0.5791772236394598</v>
       </c>
       <c r="D361">
-        <v>0.5569203623334855</v>
+        <v>0.5569203623334857</v>
       </c>
       <c r="E361">
-        <v>0.511464117465935</v>
+        <v>0.5114641174659351</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6511,7 +6511,7 @@
         <v>0.5637803006455612</v>
       </c>
       <c r="C362">
-        <v>0.4972791750886563</v>
+        <v>0.4972791750886564</v>
       </c>
       <c r="D362">
         <v>0.4659864524448975</v>
@@ -6528,13 +6528,13 @@
         <v>0.6280685831390048</v>
       </c>
       <c r="C363">
-        <v>0.5767137227533661</v>
+        <v>0.5767137227533663</v>
       </c>
       <c r="D363">
         <v>0.5557346029722949</v>
       </c>
       <c r="E363">
-        <v>0.5038519720958171</v>
+        <v>0.5038519720958172</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6559,7 +6559,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.671820215518852</v>
+        <v>0.6718202155188518</v>
       </c>
       <c r="C365">
         <v>0.613180842864347</v>
@@ -6610,7 +6610,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.659393455245125</v>
+        <v>0.6593934552451249</v>
       </c>
       <c r="C368">
         <v>0.5991920671508649</v>
@@ -6644,7 +6644,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C370">
         <v>0.5186923730646229</v>
@@ -6653,7 +6653,7 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="E370">
-        <v>0.4387086721902797</v>
+        <v>0.4387086721902796</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,7 +6661,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C371">
         <v>0.5186923730646228</v>
@@ -6670,7 +6670,7 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="E371">
-        <v>0.4387086721902797</v>
+        <v>0.4387086721902796</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6678,7 +6678,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C372">
         <v>0.5186923730646228</v>
@@ -6687,7 +6687,7 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="E372">
-        <v>0.4387086721902798</v>
+        <v>0.4387086721902796</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,7 +6698,7 @@
         <v>0.6935078067973676</v>
       </c>
       <c r="C373">
-        <v>0.6293047746481991</v>
+        <v>0.6293047746481992</v>
       </c>
       <c r="D373">
         <v>0.6645693653425306</v>
@@ -6712,16 +6712,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.588164294525202</v>
+        <v>0.5881642945252019</v>
       </c>
       <c r="C374">
-        <v>0.5299354730907962</v>
+        <v>0.5299354730907964</v>
       </c>
       <c r="D374">
         <v>0.5558967222533711</v>
       </c>
       <c r="E374">
-        <v>0.6127512866034021</v>
+        <v>0.6127512866034019</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.6943226316711376</v>
+        <v>0.6943226316711377</v>
       </c>
       <c r="C375">
         <v>0.6194138004428295</v>
@@ -6738,7 +6738,7 @@
         <v>0.6572856239219214</v>
       </c>
       <c r="E375">
-        <v>0.7200329275216396</v>
+        <v>0.7200329275216395</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0.5212047114952036</v>
       </c>
       <c r="D376">
-        <v>0.550772245527157</v>
+        <v>0.5507722455271571</v>
       </c>
       <c r="E376">
         <v>0.6079283634646986</v>
@@ -6769,7 +6769,7 @@
         <v>0.5212047114952035</v>
       </c>
       <c r="D377">
-        <v>0.550772245527157</v>
+        <v>0.5507722455271571</v>
       </c>
       <c r="E377">
         <v>0.6079283634646986</v>
@@ -6780,10 +6780,10 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.7937812266341325</v>
+        <v>0.7937812266341326</v>
       </c>
       <c r="C378">
-        <v>0.7222635334880615</v>
+        <v>0.7222635334880614</v>
       </c>
       <c r="D378">
         <v>0.76376211807331</v>
@@ -6797,7 +6797,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.7937812266341325</v>
+        <v>0.7937812266341326</v>
       </c>
       <c r="C379">
         <v>0.7222635334880615</v>
@@ -6814,10 +6814,10 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.7946191195036909</v>
+        <v>0.7946191195036911</v>
       </c>
       <c r="C380">
-        <v>0.7119735406492962</v>
+        <v>0.7119735406492961</v>
       </c>
       <c r="D380">
         <v>0.756823982915054</v>
@@ -6831,7 +6831,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.7946191195036909</v>
+        <v>0.7946191195036911</v>
       </c>
       <c r="C381">
         <v>0.7119735406492962</v>
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.793241922637225</v>
+        <v>0.7932419226372249</v>
       </c>
       <c r="C382">
         <v>0.7066742199060893</v>
@@ -6865,7 +6865,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.6657393550807532</v>
+        <v>0.6657393550807531</v>
       </c>
       <c r="C383">
         <v>0.598985691354153</v>
@@ -6882,16 +6882,16 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.6169242157592495</v>
+        <v>0.6169242157592494</v>
       </c>
       <c r="C384">
         <v>0.5495096496538139</v>
       </c>
       <c r="D384">
-        <v>0.572448817208232</v>
+        <v>0.5724488172082322</v>
       </c>
       <c r="E384">
-        <v>0.6135204314799209</v>
+        <v>0.613520431479921</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,7 +6899,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.7389050204609784</v>
+        <v>0.7389050204609783</v>
       </c>
       <c r="C385">
         <v>0.6762832463769545</v>
@@ -6919,7 +6919,7 @@
         <v>0.4319178910977967</v>
       </c>
       <c r="C386">
-        <v>0.3771255726582082</v>
+        <v>0.3771255726582083</v>
       </c>
       <c r="D386">
         <v>0.3778584183762121</v>
@@ -6936,7 +6936,7 @@
         <v>0.4319178910977967</v>
       </c>
       <c r="C387">
-        <v>0.3771255726582082</v>
+        <v>0.3771255726582083</v>
       </c>
       <c r="D387">
         <v>0.3778584183762121</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.7989214176492905</v>
+        <v>0.7989214176492904</v>
       </c>
       <c r="C388">
         <v>0.7113862163399394</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.7989214176492906</v>
+        <v>0.7989214176492904</v>
       </c>
       <c r="C391">
         <v>0.7113862163399394</v>
@@ -7010,7 +7010,7 @@
         <v>0.687308573005557</v>
       </c>
       <c r="E391">
-        <v>0.6876082959143718</v>
+        <v>0.6876082959143717</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7021,7 +7021,7 @@
         <v>0.695249445026485</v>
       </c>
       <c r="C392">
-        <v>0.609013106958733</v>
+        <v>0.6090131069587331</v>
       </c>
       <c r="D392">
         <v>0.5899690016171523</v>
@@ -7035,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.5778855622276793</v>
+        <v>0.5778855622276792</v>
       </c>
       <c r="C393">
-        <v>0.4970770096289416</v>
+        <v>0.4970770096289417</v>
       </c>
       <c r="D393">
-        <v>0.4745025366636473</v>
+        <v>0.4745025366636472</v>
       </c>
       <c r="E393">
         <v>0.4710110928459668</v>
@@ -7058,7 +7058,7 @@
         <v>0.4970770096289417</v>
       </c>
       <c r="D394">
-        <v>0.4745025366636472</v>
+        <v>0.4745025366636471</v>
       </c>
       <c r="E394">
         <v>0.4710110928459668</v>
@@ -7072,10 +7072,10 @@
         <v>0.5983493725662771</v>
       </c>
       <c r="C395">
-        <v>0.5167618631776195</v>
+        <v>0.5167618631776196</v>
       </c>
       <c r="D395">
-        <v>0.4934800992538075</v>
+        <v>0.4934800992538074</v>
       </c>
       <c r="E395">
         <v>0.4888056176021272</v>
@@ -7089,10 +7089,10 @@
         <v>0.5983493725662771</v>
       </c>
       <c r="C396">
-        <v>0.5167618631776195</v>
+        <v>0.5167618631776196</v>
       </c>
       <c r="D396">
-        <v>0.4934800992538076</v>
+        <v>0.4934800992538074</v>
       </c>
       <c r="E396">
         <v>0.4888056176021272</v>
@@ -7112,7 +7112,7 @@
         <v>0.711614668870156</v>
       </c>
       <c r="E397">
-        <v>0.7022421788923762</v>
+        <v>0.7022421788923761</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7129,7 +7129,7 @@
         <v>0.711614668870156</v>
       </c>
       <c r="E398">
-        <v>0.7022421788923762</v>
+        <v>0.7022421788923761</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7146,7 +7146,7 @@
         <v>0.5563433123913351</v>
       </c>
       <c r="E399">
-        <v>0.5170020345622037</v>
+        <v>0.5170020345622036</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7154,7 +7154,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.6297490488604531</v>
+        <v>0.629749048860453</v>
       </c>
       <c r="C400">
         <v>0.5686824518409912</v>
@@ -7163,7 +7163,7 @@
         <v>0.5452280569983303</v>
       </c>
       <c r="E400">
-        <v>0.5034951219084418</v>
+        <v>0.5034951219084417</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7191,13 +7191,13 @@
         <v>0.6399585860605809</v>
       </c>
       <c r="C402">
-        <v>0.574459610645969</v>
+        <v>0.5744596106459691</v>
       </c>
       <c r="D402">
         <v>0.5461020547610506</v>
       </c>
       <c r="E402">
-        <v>0.5013461767903918</v>
+        <v>0.5013461767903917</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.6297490488604532</v>
+        <v>0.6297490488604531</v>
       </c>
       <c r="C403">
-        <v>0.5686824518409911</v>
+        <v>0.5686824518409912</v>
       </c>
       <c r="D403">
         <v>0.5452280569983303</v>
       </c>
       <c r="E403">
-        <v>0.5034951219084418</v>
+        <v>0.5034951219084417</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,10 +7222,10 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C404">
-        <v>0.5090222228230105</v>
+        <v>0.5090222228230106</v>
       </c>
       <c r="D404">
         <v>0.4855743723691365</v>
@@ -7239,10 +7239,10 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C405">
-        <v>0.5090222228230105</v>
+        <v>0.5090222228230106</v>
       </c>
       <c r="D405">
         <v>0.4855743723691365</v>
@@ -7256,7 +7256,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C406">
         <v>0.5090222228230106</v>
@@ -7265,7 +7265,7 @@
         <v>0.4855743723691365</v>
       </c>
       <c r="E406">
-        <v>0.4491919696478196</v>
+        <v>0.4491919696478195</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7324,7 +7324,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.6889896585585186</v>
+        <v>0.6889896585585183</v>
       </c>
       <c r="C410">
         <v>0.6234737377740491</v>
@@ -7344,7 +7344,7 @@
         <v>0.6129980471034056</v>
       </c>
       <c r="C411">
-        <v>0.5412877481773674</v>
+        <v>0.5412877481773675</v>
       </c>
       <c r="D411">
         <v>0.5082888323921455</v>
@@ -7361,7 +7361,7 @@
         <v>0.6129980471034056</v>
       </c>
       <c r="C412">
-        <v>0.5412877481773674</v>
+        <v>0.5412877481773675</v>
       </c>
       <c r="D412">
         <v>0.5082888323921455</v>
@@ -7375,7 +7375,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.5526969515079514</v>
+        <v>0.5526969515079513</v>
       </c>
       <c r="C413">
         <v>0.4819555885132302</v>
@@ -7392,7 +7392,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.6895562858115393</v>
+        <v>0.6895562858115392</v>
       </c>
       <c r="C414">
         <v>0.6166775934883562</v>
@@ -7401,7 +7401,7 @@
         <v>0.5842222437526492</v>
       </c>
       <c r="E414">
-        <v>0.5283377129718164</v>
+        <v>0.5283377129718163</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7426,7 +7426,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.7098561773363078</v>
+        <v>0.7098561773363077</v>
       </c>
       <c r="C416">
         <v>0.6410107736362525</v>
@@ -7435,7 +7435,7 @@
         <v>0.6107256433498541</v>
       </c>
       <c r="E416">
-        <v>0.5551618813364149</v>
+        <v>0.5551618813364148</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7452,7 +7452,7 @@
         <v>0.5827329916932948</v>
       </c>
       <c r="E417">
-        <v>0.53278551625814</v>
+        <v>0.5327855162581399</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.6781304868752022</v>
+        <v>0.6781304868752021</v>
       </c>
       <c r="C418">
-        <v>0.6118864877257868</v>
+        <v>0.6118864877257869</v>
       </c>
       <c r="D418">
         <v>0.582732991693295</v>
       </c>
       <c r="E418">
-        <v>0.53278551625814</v>
+        <v>0.5327855162581399</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7494,13 +7494,13 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>0.6504300884694464</v>
+        <v>0.6504300884694465</v>
       </c>
       <c r="C420">
         <v>0.6000599670983843</v>
       </c>
       <c r="D420">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="E420">
         <v>0.5298449378090223</v>
@@ -7545,7 +7545,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C423">
         <v>0.6000599670983843</v>
@@ -7562,13 +7562,13 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C424">
         <v>0.6000599670983843</v>
       </c>
       <c r="D424">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="E424">
         <v>0.5298449378090223</v>
@@ -7619,7 +7619,7 @@
         <v>0.5901406425132568</v>
       </c>
       <c r="D427">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="E427">
         <v>0.5199978808676102</v>
@@ -7647,7 +7647,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C429">
         <v>0.6000599670983843</v>
@@ -7681,7 +7681,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.6828142499303624</v>
+        <v>0.6828142499303625</v>
       </c>
       <c r="C431">
         <v>0.6361913021620067</v>
@@ -7704,7 +7704,7 @@
         <v>0.6000599670983843</v>
       </c>
       <c r="D432">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="E432">
         <v>0.5298449378090223</v>
@@ -7721,7 +7721,7 @@
         <v>0.6000599670983843</v>
       </c>
       <c r="D433">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="E433">
         <v>0.5298449378090223</v>
@@ -7755,7 +7755,7 @@
         <v>0.6000599670983843</v>
       </c>
       <c r="D435">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="E435">
         <v>0.5298449378090223</v>
@@ -7772,7 +7772,7 @@
         <v>0.5646208474148215</v>
       </c>
       <c r="D436">
-        <v>0.5350981827599919</v>
+        <v>0.5350981827599917</v>
       </c>
       <c r="E436">
         <v>0.5085522830753332</v>
@@ -7792,7 +7792,7 @@
         <v>0.3851193202196228</v>
       </c>
       <c r="E437">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7806,10 +7806,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D438">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E438">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7823,10 +7823,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D439">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E439">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7840,10 +7840,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D440">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E440">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7857,10 +7857,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D441">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E441">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7874,7 +7874,7 @@
         <v>0.4255884208985868</v>
       </c>
       <c r="D442">
-        <v>0.400489267866889</v>
+        <v>0.4004892678668889</v>
       </c>
       <c r="E442">
         <v>0.3744473141219675</v>
@@ -7891,10 +7891,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D443">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E443">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867727</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7908,10 +7908,10 @@
         <v>0.4122862410142471</v>
       </c>
       <c r="D444">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E444">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,10 +7925,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D445">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E445">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7942,10 +7942,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D446">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E446">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7959,10 +7959,10 @@
         <v>0.412286241014247</v>
       </c>
       <c r="D447">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="E447">
-        <v>0.3593299847867729</v>
+        <v>0.3593299847867728</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8013,7 +8013,7 @@
         <v>0.7338601713594424</v>
       </c>
       <c r="E450">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,7 +8021,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.8119616627420947</v>
+        <v>0.8119616627420946</v>
       </c>
       <c r="C451">
         <v>0.7573059580604724</v>
@@ -8047,7 +8047,7 @@
         <v>0.7338601713594425</v>
       </c>
       <c r="E452">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8078,7 +8078,7 @@
         <v>0.57005636626502</v>
       </c>
       <c r="D454">
-        <v>0.5481531721812897</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E454">
         <v>0.5002533273070836</v>
@@ -8095,7 +8095,7 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="D455">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E455">
         <v>0.5002533273070836</v>
@@ -8163,10 +8163,10 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="D459">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E459">
-        <v>0.5002533273070836</v>
+        <v>0.5002533273070837</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8180,7 +8180,7 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="D460">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E460">
         <v>0.5002533273070836</v>
@@ -8214,7 +8214,7 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="D462">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E462">
         <v>0.5002533273070836</v>
@@ -8248,7 +8248,7 @@
         <v>0.5901406425132569</v>
       </c>
       <c r="D464">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="E464">
         <v>0.5199978808676102</v>
@@ -8262,10 +8262,10 @@
         <v>0.6499975216569617</v>
       </c>
       <c r="C465">
-        <v>0.5894419204172482</v>
+        <v>0.5894419204172483</v>
       </c>
       <c r="D465">
-        <v>0.5568091574863485</v>
+        <v>0.5568091574863484</v>
       </c>
       <c r="E465">
         <v>0.5235635337000107</v>
@@ -8279,10 +8279,10 @@
         <v>0.6508137014234251</v>
       </c>
       <c r="C466">
-        <v>0.5794945065954856</v>
+        <v>0.5794945065954857</v>
       </c>
       <c r="D466">
-        <v>0.5493603822616697</v>
+        <v>0.5493603822616696</v>
       </c>
       <c r="E466">
         <v>0.5136271673157231</v>
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.8119616627420946</v>
+        <v>0.8119616627420945</v>
       </c>
       <c r="C468">
         <v>0.7573059580604723</v>
@@ -8327,7 +8327,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.8119616627420947</v>
+        <v>0.8119616627420946</v>
       </c>
       <c r="C469">
         <v>0.7573059580604723</v>
@@ -8336,7 +8336,7 @@
         <v>0.7338601713594425</v>
       </c>
       <c r="E469">
-        <v>0.6736069571599853</v>
+        <v>0.6736069571599854</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8361,13 +8361,13 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.6512296973944073</v>
+        <v>0.6512296973944074</v>
       </c>
       <c r="C471">
         <v>0.5901406425132569</v>
       </c>
       <c r="D471">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="E471">
         <v>0.5199978808676102</v>
@@ -8384,7 +8384,7 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="D472">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="E472">
         <v>0.5002533273070836</v>
@@ -8395,13 +8395,13 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.6508137014234251</v>
+        <v>0.650813701423425</v>
       </c>
       <c r="C473">
-        <v>0.5794945065954856</v>
+        <v>0.5794945065954857</v>
       </c>
       <c r="D473">
-        <v>0.5493603822616697</v>
+        <v>0.5493603822616696</v>
       </c>
       <c r="E473">
         <v>0.5136271673157231</v>
@@ -8412,10 +8412,10 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>0.6508137014234251</v>
+        <v>0.650813701423425</v>
       </c>
       <c r="C474">
-        <v>0.5794945065954855</v>
+        <v>0.5794945065954856</v>
       </c>
       <c r="D474">
         <v>0.5493603822616697</v>
@@ -8435,7 +8435,7 @@
         <v>0.5646208474148215</v>
       </c>
       <c r="D475">
-        <v>0.5350981827599918</v>
+        <v>0.5350981827599917</v>
       </c>
       <c r="E475">
         <v>0.5085522830753331</v>
@@ -8452,7 +8452,7 @@
         <v>0.4183027805256141</v>
       </c>
       <c r="D476">
-        <v>0.3946499514360725</v>
+        <v>0.3946499514360724</v>
       </c>
       <c r="E476">
         <v>0.3635168536900861</v>
@@ -8469,7 +8469,7 @@
         <v>0.4183027805256141</v>
       </c>
       <c r="D477">
-        <v>0.3946499514360725</v>
+        <v>0.3946499514360724</v>
       </c>
       <c r="E477">
         <v>0.3635168536900861</v>
@@ -8483,13 +8483,13 @@
         <v>0.9711493486375107</v>
       </c>
       <c r="C478">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="D478">
-        <v>0.8589373896328881</v>
+        <v>0.858937389632888</v>
       </c>
       <c r="E478">
-        <v>0.8365042144852745</v>
+        <v>0.8365042144852743</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8500,7 +8500,7 @@
         <v>0.8926266718986786</v>
       </c>
       <c r="C479">
-        <v>0.7941602471408081</v>
+        <v>0.7941602471408082</v>
       </c>
       <c r="D479">
         <v>0.7741824308061517</v>
@@ -8517,13 +8517,13 @@
         <v>0.9528159673978212</v>
       </c>
       <c r="C480">
-        <v>0.8590822091831244</v>
+        <v>0.8590822091831246</v>
       </c>
       <c r="D480">
-        <v>0.8325180953644574</v>
+        <v>0.8325180953644572</v>
       </c>
       <c r="E480">
-        <v>0.8219399470989934</v>
+        <v>0.8219399470989932</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8534,10 +8534,10 @@
         <v>0.9711493486375107</v>
       </c>
       <c r="C481">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="D481">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="E481">
         <v>0.8365042144852743</v>
@@ -8551,13 +8551,13 @@
         <v>0.9711493486375108</v>
       </c>
       <c r="C482">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="D482">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="E482">
-        <v>0.8365042144852743</v>
+        <v>0.8365042144852741</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8568,10 +8568,10 @@
         <v>0.9711493486375107</v>
       </c>
       <c r="C483">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139495</v>
       </c>
       <c r="D483">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="E483">
         <v>0.8365042144852743</v>
@@ -8585,10 +8585,10 @@
         <v>0.9711493486375107</v>
       </c>
       <c r="C484">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="D484">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="E484">
         <v>0.8365042144852743</v>
@@ -8602,10 +8602,10 @@
         <v>0.9528159673978212</v>
       </c>
       <c r="C485">
-        <v>0.8590822091831243</v>
+        <v>0.8590822091831245</v>
       </c>
       <c r="D485">
-        <v>0.8325180953644574</v>
+        <v>0.8325180953644572</v>
       </c>
       <c r="E485">
         <v>0.8219399470989932</v>
@@ -8619,10 +8619,10 @@
         <v>0.9348467108775357</v>
       </c>
       <c r="C486">
-        <v>0.8401795962010377</v>
+        <v>0.8401795962010378</v>
       </c>
       <c r="D486">
-        <v>0.8129731916711225</v>
+        <v>0.8129731916711224</v>
       </c>
       <c r="E486">
         <v>0.8040677682954893</v>
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.9283766343442726</v>
+        <v>0.9283766343442725</v>
       </c>
       <c r="C487">
-        <v>0.8299362916380411</v>
+        <v>0.8299362916380412</v>
       </c>
       <c r="D487">
-        <v>0.8102001580676798</v>
+        <v>0.8102001580676795</v>
       </c>
       <c r="E487">
-        <v>0.794590715353201</v>
+        <v>0.7945907153532008</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.8708729277907591</v>
+        <v>0.870872927790759</v>
       </c>
       <c r="C488">
-        <v>0.7742463616472459</v>
+        <v>0.7742463616472463</v>
       </c>
       <c r="D488">
-        <v>0.7507033857548691</v>
+        <v>0.7507033857548689</v>
       </c>
       <c r="E488">
-        <v>0.7334467301369202</v>
+        <v>0.7334467301369201</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,16 +8667,16 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.8708729277907592</v>
+        <v>0.870872927790759</v>
       </c>
       <c r="C489">
-        <v>0.7742463616472459</v>
+        <v>0.7742463616472464</v>
       </c>
       <c r="D489">
         <v>0.7507033857548688</v>
       </c>
       <c r="E489">
-        <v>0.7334467301369204</v>
+        <v>0.7334467301369202</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8690,7 +8690,7 @@
         <v>0.9150103753076896</v>
       </c>
       <c r="D490">
-        <v>0.8849622531184079</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="E490">
         <v>0.8659286047154906</v>
@@ -8707,7 +8707,7 @@
         <v>0.9070751897530064</v>
       </c>
       <c r="D491">
-        <v>0.8836447726452917</v>
+        <v>0.8836447726452916</v>
       </c>
       <c r="E491">
         <v>0.8583758702985109</v>
@@ -8724,7 +8724,7 @@
         <v>0.9150103753076896</v>
       </c>
       <c r="D492">
-        <v>0.8849622531184081</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="E492">
         <v>0.8659286047154906</v>
@@ -8741,10 +8741,10 @@
         <v>0.9150103753076896</v>
       </c>
       <c r="D493">
-        <v>0.8849622531184081</v>
+        <v>0.8849622531184079</v>
       </c>
       <c r="E493">
-        <v>0.8659286047154906</v>
+        <v>0.8659286047154907</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8758,10 +8758,10 @@
         <v>0.9150103753076896</v>
       </c>
       <c r="D494">
-        <v>0.8849622531184079</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="E494">
-        <v>0.8659286047154908</v>
+        <v>0.8659286047154905</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8778,7 +8778,7 @@
         <v>0.8159422616269032</v>
       </c>
       <c r="E495">
-        <v>0.7958934422432404</v>
+        <v>0.7958934422432401</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.952320883677048</v>
+        <v>0.9523208836770477</v>
       </c>
       <c r="C496">
-        <v>0.856135951027861</v>
+        <v>0.8561359510278611</v>
       </c>
       <c r="D496">
-        <v>0.832467089195263</v>
+        <v>0.8324670891952629</v>
       </c>
       <c r="E496">
-        <v>0.806362455183764</v>
+        <v>0.8063624551837637</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,7 +8803,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>0.9352947561249125</v>
+        <v>0.9352947561249124</v>
       </c>
       <c r="C497">
         <v>0.8375359832489505</v>
@@ -8812,7 +8812,7 @@
         <v>0.8159422616269032</v>
       </c>
       <c r="E497">
-        <v>0.7958934422432404</v>
+        <v>0.7958934422432401</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,13 +8820,13 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.9181009485535659</v>
+        <v>0.9181009485535657</v>
       </c>
       <c r="C498">
-        <v>0.8196698112116771</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="D498">
-        <v>0.7879735517501542</v>
+        <v>0.787973551750154</v>
       </c>
       <c r="E498">
         <v>0.7536972730548462</v>
@@ -8837,13 +8837,13 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.9181009485535658</v>
+        <v>0.9181009485535657</v>
       </c>
       <c r="C499">
-        <v>0.8196698112116773</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="D499">
-        <v>0.7879735517501542</v>
+        <v>0.787973551750154</v>
       </c>
       <c r="E499">
         <v>0.7536972730548461</v>
@@ -8854,10 +8854,10 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>0.9181009485535658</v>
+        <v>0.9181009485535656</v>
       </c>
       <c r="C500">
-        <v>0.8196698112116773</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="D500">
         <v>0.787973551750154</v>
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.9175355398153318</v>
+        <v>0.9175355398153316</v>
       </c>
       <c r="C501">
         <v>0.8180549069548083</v>
       </c>
       <c r="D501">
-        <v>0.7912978716338995</v>
+        <v>0.7912978716338996</v>
       </c>
       <c r="E501">
-        <v>0.7662864761248505</v>
+        <v>0.7662864761248503</v>
       </c>
     </row>
   </sheetData>
